--- a/interest-factors-table-and-formulas.xlsx
+++ b/interest-factors-table-and-formulas.xlsx
@@ -24,16 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t xml:space="preserve">SIE 265: Engineering Management I 
 Interest Factors Table and Formulas</t>
   </si>
   <si>
     <t xml:space="preserve">Interest (i)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount:</t>
   </si>
   <si>
     <t xml:space="preserve">Compunds/Period:</t>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t xml:space="preserve">Total Periods:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount:</t>
   </si>
   <si>
     <t xml:space="preserve">Interest Formulas</t>
@@ -262,11 +262,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -349,9 +349,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>862200</xdr:colOff>
+      <xdr:colOff>861480</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>125640</xdr:rowOff>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -364,8 +364,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12330360" y="3783600"/>
-          <a:ext cx="2665800" cy="531720"/>
+          <a:off x="12062880" y="3635640"/>
+          <a:ext cx="2611800" cy="531000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -386,9 +386,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>824040</xdr:colOff>
+      <xdr:colOff>823320</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>188640</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -401,8 +401,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12292200" y="4646880"/>
-          <a:ext cx="2665800" cy="493560"/>
+          <a:off x="12024720" y="4498920"/>
+          <a:ext cx="2611800" cy="492840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -423,9 +423,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>569880</xdr:colOff>
+      <xdr:colOff>569160</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -438,8 +438,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12342960" y="3351600"/>
-          <a:ext cx="2360880" cy="239400"/>
+          <a:off x="12075480" y="3203640"/>
+          <a:ext cx="2306880" cy="238680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -460,9 +460,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>417600</xdr:colOff>
+      <xdr:colOff>416880</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -475,8 +475,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12330360" y="2653200"/>
-          <a:ext cx="2221200" cy="239400"/>
+          <a:off x="12062880" y="2505240"/>
+          <a:ext cx="2167200" cy="238680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -497,9 +497,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>837000</xdr:colOff>
+      <xdr:colOff>836280</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>23040</xdr:rowOff>
+      <xdr:rowOff>22320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -512,8 +512,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12317760" y="5383440"/>
-          <a:ext cx="2653200" cy="543960"/>
+          <a:off x="12050280" y="5235480"/>
+          <a:ext cx="2599200" cy="543240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -534,9 +534,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>849600</xdr:colOff>
+      <xdr:colOff>848880</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -549,8 +549,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12330360" y="6285240"/>
-          <a:ext cx="2653200" cy="544320"/>
+          <a:off x="12062880" y="6137280"/>
+          <a:ext cx="2599200" cy="543600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -571,9 +571,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>468360</xdr:colOff>
+      <xdr:colOff>467640</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>163800</xdr:rowOff>
+      <xdr:rowOff>163080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -586,8 +586,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12317760" y="7225200"/>
-          <a:ext cx="4138560" cy="557280"/>
+          <a:off x="12050280" y="7077240"/>
+          <a:ext cx="4031280" cy="556560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -608,9 +608,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>366840</xdr:colOff>
+      <xdr:colOff>366120</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>188640</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -623,8 +623,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12330360" y="8037720"/>
-          <a:ext cx="3097440" cy="531720"/>
+          <a:off x="12062880" y="7889760"/>
+          <a:ext cx="3016800" cy="531000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -645,9 +645,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>798480</xdr:colOff>
+      <xdr:colOff>797760</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -660,8 +660,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12330360" y="8977680"/>
-          <a:ext cx="2602080" cy="569880"/>
+          <a:off x="12062880" y="8829720"/>
+          <a:ext cx="2548080" cy="569160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -682,9 +682,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>214200</xdr:colOff>
+      <xdr:colOff>213480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>48960</xdr:rowOff>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -697,8 +697,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12342960" y="9803160"/>
-          <a:ext cx="2932200" cy="531360"/>
+          <a:off x="12075480" y="9655200"/>
+          <a:ext cx="2851560" cy="530640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -719,9 +719,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>11520</xdr:colOff>
+      <xdr:colOff>10800</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>163800</xdr:rowOff>
+      <xdr:rowOff>163080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -734,8 +734,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12305160" y="10641600"/>
-          <a:ext cx="3694320" cy="569880"/>
+          <a:off x="12037680" y="10493640"/>
+          <a:ext cx="3587040" cy="569160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -757,14 +757,14 @@
   </sheetPr>
   <dimension ref="A1:L411"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="12.45"/>
@@ -789,81 +789,75 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="17.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="n">
         <f aca="false">B5/B4</f>
-        <v>0.15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>9500</v>
-      </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="17.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="D3" s="4"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="17.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="17.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="17.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="17.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="B7" s="2" t="n">
-        <v>9500</v>
-      </c>
-      <c r="K7" s="7"/>
+        <v>2800</v>
+      </c>
+      <c r="K7" s="6"/>
       <c r="L7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
-      <c r="K8" s="7"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="17.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
-      <c r="K9" s="7"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
@@ -897,39 +891,39 @@
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
         <f aca="false">B6*B4</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11" s="11" t="n">
         <f aca="false">(1+intr1)^A11</f>
-        <v>8.13706162916232</v>
+        <v>2.02581651537853</v>
       </c>
       <c r="C11" s="11" t="n">
         <f aca="false">1/B11</f>
-        <v>0.122894485205336</v>
+        <v>0.493628121011318</v>
       </c>
       <c r="D11" s="11" t="n">
         <f aca="false">intr1/((1+intr1)^A11-1)</f>
-        <v>0.0210170526463011</v>
+        <v>0.0389933281443025</v>
       </c>
       <c r="E11" s="11" t="n">
         <f aca="false">1/D11</f>
-        <v>47.5804108610821</v>
+        <v>25.6454128844633</v>
       </c>
       <c r="F11" s="11" t="n">
         <f aca="false">((1+intr1)^A11*intr1)/((1+intr1)^A11-1)</f>
-        <v>0.171017052646301</v>
+        <v>0.0789933281443025</v>
       </c>
       <c r="G11" s="11" t="n">
         <f aca="false">1/F11</f>
-        <v>5.84737009863109</v>
+        <v>12.6592969747171</v>
       </c>
       <c r="H11" s="11" t="n">
         <f aca="false">(1/intr1)*(((1+intr1)^A11-1)/((1+intr1)^A11*intr1)-A11/(1+intr1)^A11)</f>
-        <v>26.6930188036736</v>
+        <v>94.3497699128336</v>
       </c>
       <c r="I11" s="11" t="n">
         <f aca="false">1/intr1-(A11/((1+intr1)^A11-1))</f>
-        <v>4.56496140203656</v>
+        <v>7.4530023350639</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -945,39 +939,39 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B13" s="12" t="n">
-        <f aca="false">B11*$E$2</f>
-        <v>77302.0854770421</v>
+        <f aca="false">B11*$B$7</f>
+        <v>5672.28624305989</v>
       </c>
       <c r="C13" s="12" t="n">
-        <f aca="false">C11*$E$2</f>
-        <v>1167.4976094507</v>
+        <f aca="false">C11*$B$7</f>
+        <v>1382.15873883169</v>
       </c>
       <c r="D13" s="12" t="n">
-        <f aca="false">D11*$E$2</f>
-        <v>199.66200013986</v>
+        <f aca="false">D11*$B$7</f>
+        <v>109.181318804047</v>
       </c>
       <c r="E13" s="12" t="n">
-        <f aca="false">E11*$E$2</f>
-        <v>452013.90318028</v>
+        <f aca="false">E11*$B$7</f>
+        <v>71807.1560764973</v>
       </c>
       <c r="F13" s="12" t="n">
-        <f aca="false">F11*$E$2</f>
-        <v>1624.66200013986</v>
+        <f aca="false">F11*$B$7</f>
+        <v>221.181318804047</v>
       </c>
       <c r="G13" s="12" t="n">
-        <f aca="false">G11*$E$2</f>
-        <v>55550.0159369954</v>
+        <f aca="false">G11*$B$7</f>
+        <v>35446.0315292078</v>
       </c>
       <c r="H13" s="12" t="n">
-        <f aca="false">H11*$E$2</f>
-        <v>253583.678634899</v>
+        <f aca="false">H11*$B$7</f>
+        <v>264179.355755934</v>
       </c>
       <c r="I13" s="12" t="n">
-        <f aca="false">I11*$E$2</f>
-        <v>43367.1333193473</v>
+        <f aca="false">I11*$B$7</f>
+        <v>20868.4065381789</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1005,15 +999,19 @@
       <c r="J15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="16"/>
+      <c r="E16" s="16" t="n">
+        <v>-7000</v>
+      </c>
       <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="G16" s="14" t="n">
+        <v>-5000</v>
+      </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="15"/>
@@ -1029,9 +1027,13 @@
         <v>18</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="E17" s="14" t="n">
+        <v>-20959.6098509583</v>
+      </c>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0" t="n">
+        <v>-23462.6844012459</v>
+      </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="15"/>
@@ -1043,13 +1045,22 @@
       <c r="B18" s="19" t="n">
         <v>300</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="E18" s="14" t="n">
+        <v>-14662.5572447796</v>
+      </c>
       <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="G18" s="14" t="n">
+        <f aca="false">-6000*H18*I18</f>
+        <v>-19645.3392853122</v>
+      </c>
+      <c r="H18" s="14" t="n">
+        <v>5.24213685674636</v>
+      </c>
+      <c r="I18" s="14" t="n">
+        <v>0.624597049580065</v>
+      </c>
       <c r="J18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1059,11 +1070,17 @@
       <c r="B19" s="19" t="n">
         <v>-2580</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="14"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="14" t="n">
+        <f aca="false">SUM(E16:E18)</f>
+        <v>-42622.1670957379</v>
+      </c>
       <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="G19" s="14" t="n">
+        <f aca="false">SUM(G16:G18)</f>
+        <v>-48108.0236865581</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="15"/>
@@ -1075,7 +1092,7 @@
       <c r="B20" s="19" t="n">
         <v>10000</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -1092,11 +1109,15 @@
         <f aca="false">RATE($B$17, $B$18, $B$19, $B$20)</f>
         <v>0.120025592935366</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="E21" s="14" t="n">
+        <v>-15000</v>
+      </c>
       <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="G21" s="0" t="n">
+        <v>-15000</v>
+      </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="15"/>
@@ -1106,9 +1127,13 @@
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="E22" s="14" t="n">
+        <v>-27069.0087029498</v>
+      </c>
       <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="G22" s="0" t="n">
+        <v>-30382.3127393209</v>
+      </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="15"/>
@@ -1118,9 +1143,13 @@
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="E23" s="14" t="n">
+        <v>980.962615161772</v>
+      </c>
       <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="G23" s="0" t="n">
+        <v>1382.15873883169</v>
+      </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="15"/>
@@ -1130,9 +1159,15 @@
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="E24" s="14" t="n">
+        <f aca="false">SUM(E21:E23)</f>
+        <v>-41088.0460877881</v>
+      </c>
       <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="G24" s="0" t="n">
+        <f aca="false">SUM(G21:G23)</f>
+        <v>-44000.1540004893</v>
+      </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="15"/>
@@ -1165,7 +1200,7 @@
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -1176,7 +1211,7 @@
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="E28" s="14"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -1187,7 +1222,7 @@
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -1198,7 +1233,7 @@
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
@@ -1231,7 +1266,9 @@
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="12" t="n">
+        <v>-10224.7341059676</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -1242,7 +1279,9 @@
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="E34" s="12" t="n">
+        <v>-8000</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
@@ -1253,7 +1292,9 @@
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="E35" s="12" t="n">
+        <v>117.137644868927</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
@@ -1264,7 +1305,10 @@
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="E36" s="12" t="n">
+        <f aca="false">SUM(E33:E35)</f>
+        <v>-18107.5964610987</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>

--- a/interest-factors-table-and-formulas.xlsx
+++ b/interest-factors-table-and-formulas.xlsx
@@ -370,9 +370,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>861120</xdr:colOff>
+      <xdr:colOff>860760</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -386,7 +386,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12062880" y="3635640"/>
-          <a:ext cx="2611440" cy="530640"/>
+          <a:ext cx="2611080" cy="530280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -407,9 +407,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>822960</xdr:colOff>
+      <xdr:colOff>822600</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -423,7 +423,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12024720" y="4498920"/>
-          <a:ext cx="2611440" cy="492480"/>
+          <a:ext cx="2611080" cy="492120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -444,9 +444,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>568800</xdr:colOff>
+      <xdr:colOff>568440</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -460,7 +460,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12075480" y="3203640"/>
-          <a:ext cx="2306520" cy="238320"/>
+          <a:ext cx="2306160" cy="237960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -481,9 +481,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>416520</xdr:colOff>
+      <xdr:colOff>416160</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -497,7 +497,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12062880" y="2505240"/>
-          <a:ext cx="2166840" cy="238320"/>
+          <a:ext cx="2166480" cy="237960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -518,9 +518,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>835920</xdr:colOff>
+      <xdr:colOff>835560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>21960</xdr:rowOff>
+      <xdr:rowOff>21600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -534,7 +534,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12050280" y="5235480"/>
-          <a:ext cx="2598840" cy="542880"/>
+          <a:ext cx="2598480" cy="542520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -555,9 +555,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>848520</xdr:colOff>
+      <xdr:colOff>848160</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -571,7 +571,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12062880" y="6137280"/>
-          <a:ext cx="2598840" cy="543240"/>
+          <a:ext cx="2598480" cy="542880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -592,9 +592,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>467280</xdr:colOff>
+      <xdr:colOff>466920</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -608,7 +608,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12050280" y="7077240"/>
-          <a:ext cx="4030920" cy="556200"/>
+          <a:ext cx="4030560" cy="555840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -629,9 +629,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
+      <xdr:colOff>365400</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -645,7 +645,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12062880" y="7889760"/>
-          <a:ext cx="3016440" cy="530640"/>
+          <a:ext cx="3016080" cy="530280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -666,9 +666,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>797400</xdr:colOff>
+      <xdr:colOff>797040</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>22680</xdr:rowOff>
+      <xdr:rowOff>22320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -682,7 +682,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12062880" y="8829720"/>
-          <a:ext cx="2547720" cy="568800"/>
+          <a:ext cx="2547360" cy="568440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -703,9 +703,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>213120</xdr:colOff>
+      <xdr:colOff>212760</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:rowOff>47520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -719,7 +719,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12075480" y="9655200"/>
-          <a:ext cx="2851200" cy="530280"/>
+          <a:ext cx="2850840" cy="529920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -740,9 +740,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>10440</xdr:colOff>
+      <xdr:colOff>10080</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -756,7 +756,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12037680" y="10493640"/>
-          <a:ext cx="3586680" cy="568800"/>
+          <a:ext cx="3586320" cy="568440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -778,8 +778,8 @@
   </sheetPr>
   <dimension ref="A1:L411"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -815,7 +815,6 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="n">
-        <f aca="false">B5/B4</f>
         <v>0.08</v>
       </c>
       <c r="D2" s="6"/>
@@ -847,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="J5" s="7"/>
     </row>
@@ -856,7 +855,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J6" s="7"/>
     </row>
@@ -865,7 +864,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43000</v>
+        <v>13000</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="2" t="s">
@@ -912,39 +911,39 @@
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
         <f aca="false">B6*B4</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="11" t="n">
         <f aca="false">(1+intr1)^A11</f>
-        <v>2.15892499727279</v>
+        <v>1.85093021028188</v>
       </c>
       <c r="C11" s="11" t="n">
         <f aca="false">1/B11</f>
-        <v>0.463193488084684</v>
+        <v>0.540268884501976</v>
       </c>
       <c r="D11" s="11" t="n">
         <f aca="false">intr1/((1+intr1)^A11-1)</f>
-        <v>0.0690294886970753</v>
+        <v>0.0940147605918221</v>
       </c>
       <c r="E11" s="11" t="n">
         <f aca="false">1/D11</f>
-        <v>14.4865624659099</v>
+        <v>10.6366276285235</v>
       </c>
       <c r="F11" s="11" t="n">
         <f aca="false">((1+intr1)^A11*intr1)/((1+intr1)^A11-1)</f>
-        <v>0.149029488697075</v>
+        <v>0.174014760591822</v>
       </c>
       <c r="G11" s="11" t="n">
         <f aca="false">1/F11</f>
-        <v>6.71008139894145</v>
+        <v>5.7466389437253</v>
       </c>
       <c r="H11" s="11" t="n">
         <f aca="false">(1/intr1)*(((1+intr1)^A11-1)/((1+intr1)^A11*intr1)-A11/(1+intr1)^A11)</f>
-        <v>25.9768314761826</v>
+        <v>17.8060983463687</v>
       </c>
       <c r="I11" s="11" t="n">
         <f aca="false">1/intr1-(A11/((1+intr1)^A11-1))</f>
-        <v>3.87131391286558</v>
+        <v>3.09852394081779</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -964,35 +963,35 @@
       </c>
       <c r="B13" s="13" t="n">
         <f aca="false">B11*$B$7</f>
-        <v>92833.7748827299</v>
+        <v>24062.0927336645</v>
       </c>
       <c r="C13" s="13" t="n">
         <f aca="false">C11*$B$7</f>
-        <v>19917.3199876414</v>
+        <v>7023.49549852568</v>
       </c>
       <c r="D13" s="13" t="n">
         <f aca="false">D11*$B$7</f>
-        <v>2968.26801397424</v>
+        <v>1222.19188769369</v>
       </c>
       <c r="E13" s="13" t="n">
         <f aca="false">E11*$B$7</f>
-        <v>622922.186034124</v>
+        <v>138276.159170806</v>
       </c>
       <c r="F13" s="13" t="n">
         <f aca="false">F11*$B$7</f>
-        <v>6408.26801397424</v>
+        <v>2262.19188769369</v>
       </c>
       <c r="G13" s="13" t="n">
         <f aca="false">G11*$B$7</f>
-        <v>288533.500154482</v>
+        <v>74706.306268429</v>
       </c>
       <c r="H13" s="13" t="n">
         <f aca="false">H11*$B$7</f>
-        <v>1117003.75347585</v>
+        <v>231479.278502793</v>
       </c>
       <c r="I13" s="13" t="n">
         <f aca="false">I11*$B$7</f>
-        <v>166466.49825322</v>
+        <v>40280.8112306313</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1569,7 +1568,7 @@
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="0"/>
+      <c r="E39" s="6"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>

--- a/interest-factors-table-and-formulas.xlsx
+++ b/interest-factors-table-and-formulas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t xml:space="preserve">SIE 265: Engineering Management I 
 Interest Factors Table and Formulas</t>
@@ -93,23 +93,116 @@
     <t xml:space="preserve">FV</t>
   </si>
   <si>
-    <t xml:space="preserve">SL Method</t>
+    <t xml:space="preserve">Calculated</t>
   </si>
   <si>
-    <t xml:space="preserve">Sum</t>
+    <t xml:space="preserve">My Problem</t>
   </si>
   <si>
-    <t xml:space="preserve">DB Method</t>
+    <t xml:space="preserve">Example</t>
   </si>
   <si>
-    <t xml:space="preserve">MACRS Method</t>
+    <t xml:space="preserve">MARR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MV @ Yr6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenue Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expense Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost Basis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACRS Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depreciation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(C)=(A)-(B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(D)=-t(C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(E)=(A)+(D)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1/(1+f)^N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(F)=(E) / (1+f)^N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EOY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T(25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflation Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflation ATCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPV:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real NPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
+  <numFmts count="12">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
     <numFmt numFmtId="166" formatCode="General"/>
@@ -119,7 +212,9 @@
     <numFmt numFmtId="170" formatCode="0.0000000"/>
     <numFmt numFmtId="171" formatCode="0.000000000"/>
     <numFmt numFmtId="172" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
-    <numFmt numFmtId="173" formatCode="0.00000"/>
+    <numFmt numFmtId="173" formatCode="[$$-409]#,##0;[RED]\-[$$-409]#,##0"/>
+    <numFmt numFmtId="174" formatCode="0"/>
+    <numFmt numFmtId="175" formatCode="0.00000"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -250,7 +345,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -339,11 +434,39 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="174" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="175" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -370,9 +493,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>860760</xdr:colOff>
+      <xdr:colOff>860400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>123840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -386,7 +509,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12062880" y="3635640"/>
-          <a:ext cx="2611080" cy="530280"/>
+          <a:ext cx="2610720" cy="529920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -407,9 +530,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>822600</xdr:colOff>
+      <xdr:colOff>822240</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -423,7 +546,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12024720" y="4498920"/>
-          <a:ext cx="2611080" cy="492120"/>
+          <a:ext cx="2610720" cy="491760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -444,9 +567,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>568440</xdr:colOff>
+      <xdr:colOff>568080</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -460,7 +583,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12075480" y="3203640"/>
-          <a:ext cx="2306160" cy="237960"/>
+          <a:ext cx="2305800" cy="237600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -481,9 +604,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>416160</xdr:colOff>
+      <xdr:colOff>415800</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -497,7 +620,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12062880" y="2505240"/>
-          <a:ext cx="2166480" cy="237960"/>
+          <a:ext cx="2166120" cy="237600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -518,9 +641,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>835560</xdr:colOff>
+      <xdr:colOff>835200</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>21600</xdr:rowOff>
+      <xdr:rowOff>21240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -534,7 +657,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12050280" y="5235480"/>
-          <a:ext cx="2598480" cy="542520"/>
+          <a:ext cx="2598120" cy="542160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -555,9 +678,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>848160</xdr:colOff>
+      <xdr:colOff>847800</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -571,7 +694,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12062880" y="6137280"/>
-          <a:ext cx="2598480" cy="542880"/>
+          <a:ext cx="2598120" cy="542520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -592,9 +715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>466920</xdr:colOff>
+      <xdr:colOff>466560</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -608,7 +731,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12050280" y="7077240"/>
-          <a:ext cx="4030560" cy="555840"/>
+          <a:ext cx="4030200" cy="555480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -629,9 +752,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>365400</xdr:colOff>
+      <xdr:colOff>365040</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>187200</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -645,7 +768,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12062880" y="7889760"/>
-          <a:ext cx="3016080" cy="530280"/>
+          <a:ext cx="3015720" cy="529920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -666,9 +789,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>797040</xdr:colOff>
+      <xdr:colOff>796680</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -682,7 +805,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12062880" y="8829720"/>
-          <a:ext cx="2547360" cy="568440"/>
+          <a:ext cx="2547000" cy="568080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -703,9 +826,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>212760</xdr:colOff>
+      <xdr:colOff>212400</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:rowOff>47160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -719,7 +842,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12075480" y="9655200"/>
-          <a:ext cx="2850840" cy="529920"/>
+          <a:ext cx="2850480" cy="529560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -740,9 +863,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>10080</xdr:colOff>
+      <xdr:colOff>9720</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -756,7 +879,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12037680" y="10493640"/>
-          <a:ext cx="3586320" cy="568440"/>
+          <a:ext cx="3585960" cy="568080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -778,8 +901,8 @@
   </sheetPr>
   <dimension ref="A1:L411"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D24" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H41" activeCellId="0" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -815,7 +938,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>0.08</v>
+        <f aca="false">B5/B4</f>
+        <v>0.1</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -848,6 +972,10 @@
       <c r="B5" s="7" t="n">
         <v>0.1</v>
       </c>
+      <c r="D5" s="2" t="n">
+        <f aca="false">1.098/1.02-1</f>
+        <v>0.0764705882352943</v>
+      </c>
       <c r="J5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -855,7 +983,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="7"/>
     </row>
@@ -864,7 +992,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>13000</v>
+        <v>26250</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="2" t="s">
@@ -911,39 +1039,39 @@
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
         <f aca="false">B6*B4</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="11" t="n">
         <f aca="false">(1+intr1)^A11</f>
-        <v>1.85093021028188</v>
+        <v>1.9487171</v>
       </c>
       <c r="C11" s="11" t="n">
         <f aca="false">1/B11</f>
-        <v>0.540268884501976</v>
+        <v>0.513158118230707</v>
       </c>
       <c r="D11" s="11" t="n">
         <f aca="false">intr1/((1+intr1)^A11-1)</f>
-        <v>0.0940147605918221</v>
+        <v>0.105405499700596</v>
       </c>
       <c r="E11" s="11" t="n">
         <f aca="false">1/D11</f>
-        <v>10.6366276285235</v>
+        <v>9.48717100000001</v>
       </c>
       <c r="F11" s="11" t="n">
         <f aca="false">((1+intr1)^A11*intr1)/((1+intr1)^A11-1)</f>
-        <v>0.174014760591822</v>
+        <v>0.205405499700596</v>
       </c>
       <c r="G11" s="11" t="n">
         <f aca="false">1/F11</f>
-        <v>5.7466389437253</v>
+        <v>4.86841881769294</v>
       </c>
       <c r="H11" s="11" t="n">
         <f aca="false">(1/intr1)*(((1+intr1)^A11-1)/((1+intr1)^A11*intr1)-A11/(1+intr1)^A11)</f>
-        <v>17.8060983463687</v>
+        <v>12.7631199007799</v>
       </c>
       <c r="I11" s="11" t="n">
         <f aca="false">1/intr1-(A11/((1+intr1)^A11-1))</f>
-        <v>3.09852394081779</v>
+        <v>2.62161502095831</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -963,35 +1091,35 @@
       </c>
       <c r="B13" s="13" t="n">
         <f aca="false">B11*$B$7</f>
-        <v>24062.0927336645</v>
+        <v>51153.823875</v>
       </c>
       <c r="C13" s="13" t="n">
         <f aca="false">C11*$B$7</f>
-        <v>7023.49549852568</v>
+        <v>13470.400603556</v>
       </c>
       <c r="D13" s="13" t="n">
         <f aca="false">D11*$B$7</f>
-        <v>1222.19188769369</v>
+        <v>2766.89436714063</v>
       </c>
       <c r="E13" s="13" t="n">
         <f aca="false">E11*$B$7</f>
-        <v>138276.159170806</v>
+        <v>249038.23875</v>
       </c>
       <c r="F13" s="13" t="n">
         <f aca="false">F11*$B$7</f>
-        <v>2262.19188769369</v>
+        <v>5391.89436714063</v>
       </c>
       <c r="G13" s="13" t="n">
         <f aca="false">G11*$B$7</f>
-        <v>74706.306268429</v>
+        <v>127795.99396444</v>
       </c>
       <c r="H13" s="13" t="n">
         <f aca="false">H11*$B$7</f>
-        <v>231479.278502793</v>
+        <v>335031.897395472</v>
       </c>
       <c r="I13" s="13" t="n">
         <f aca="false">I11*$B$7</f>
-        <v>40280.8112306313</v>
+        <v>68817.3943001557</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1165,9 +1293,15 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -1176,398 +1310,241 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I27" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="B27" s="22" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C27" s="22" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D27" s="22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="n">
+      <c r="A28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="23" t="n">
+        <v>370000</v>
+      </c>
+      <c r="C28" s="23" t="n">
+        <v>370000</v>
+      </c>
+      <c r="D28" s="23" t="n">
+        <v>360000</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="23" t="n">
+        <v>239000</v>
+      </c>
+      <c r="C29" s="23" t="n">
+        <v>239000</v>
+      </c>
+      <c r="D29" s="23" t="n">
+        <v>239000</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="23" t="n">
+        <v>35000</v>
+      </c>
+      <c r="C30" s="23" t="n">
+        <v>35000</v>
+      </c>
+      <c r="D30" s="23" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C31" s="22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D31" s="22" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="22" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="C32" s="22" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="D32" s="22" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="22" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="C33" s="22" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="D33" s="22" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="23" t="n">
+        <v>240000</v>
+      </c>
+      <c r="C34" s="23" t="n">
+        <v>240000</v>
+      </c>
+      <c r="D34" s="23" t="n">
+        <v>220000</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C35" s="22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D35" s="22" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B28" s="11" t="n">
-        <f aca="false">(1+intr1)^A28</f>
-        <v>1.08</v>
-      </c>
-      <c r="C28" s="11" t="n">
-        <f aca="false">1/B28</f>
-        <v>0.925925925925926</v>
-      </c>
-      <c r="D28" s="22" t="n">
-        <v>43000</v>
-      </c>
-      <c r="E28" s="20" t="n">
-        <f aca="false">D28*C28</f>
-        <v>39814.8148148148</v>
-      </c>
-      <c r="F28" s="22" t="n">
-        <v>96000</v>
-      </c>
-      <c r="G28" s="22" t="n">
-        <f aca="false">F28*C28</f>
-        <v>88888.8888888889</v>
-      </c>
-      <c r="H28" s="22" t="n">
-        <v>68592</v>
-      </c>
-      <c r="I28" s="22" t="n">
-        <f aca="false">H28*C28</f>
-        <v>63511.1111111111</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="n">
+      <c r="B38" s="23" t="n">
+        <f aca="false">B34</f>
+        <v>240000</v>
+      </c>
+      <c r="C38" s="22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D38" s="23" t="n">
+        <f aca="false">B38*C38</f>
+        <v>48000</v>
+      </c>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B29" s="11" t="n">
-        <f aca="false">(1+intr1)^A29</f>
-        <v>1.1664</v>
-      </c>
-      <c r="C29" s="11" t="n">
-        <f aca="false">1/B29</f>
-        <v>0.857338820301783</v>
-      </c>
-      <c r="D29" s="22" t="n">
-        <v>43000</v>
-      </c>
-      <c r="E29" s="20" t="n">
-        <f aca="false">D29*C29</f>
-        <v>36865.5692729767</v>
-      </c>
-      <c r="F29" s="22" t="n">
+      <c r="B39" s="23" t="n">
+        <f aca="false">B38</f>
+        <v>240000</v>
+      </c>
+      <c r="C39" s="22" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D39" s="23" t="n">
+        <f aca="false">B39*C39</f>
         <v>76800</v>
       </c>
-      <c r="G29" s="22" t="n">
-        <f aca="false">F29*C29</f>
-        <v>65843.621399177</v>
-      </c>
-      <c r="H29" s="22" t="n">
-        <v>117552</v>
-      </c>
-      <c r="I29" s="22" t="n">
-        <f aca="false">H29*C29</f>
-        <v>100781.893004115</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B30" s="11" t="n">
-        <f aca="false">(1+intr1)^A30</f>
-        <v>1.259712</v>
-      </c>
-      <c r="C30" s="11" t="n">
-        <f aca="false">1/B30</f>
-        <v>0.79383224102017</v>
-      </c>
-      <c r="D30" s="22" t="n">
-        <v>43000</v>
-      </c>
-      <c r="E30" s="20" t="n">
-        <f aca="false">D30*C30</f>
-        <v>34134.7863638673</v>
-      </c>
-      <c r="F30" s="22" t="n">
-        <v>61440</v>
-      </c>
-      <c r="G30" s="22" t="n">
-        <f aca="false">F30*C30</f>
-        <v>48773.0528882792</v>
-      </c>
-      <c r="H30" s="22" t="n">
-        <v>83952</v>
-      </c>
-      <c r="I30" s="22" t="n">
-        <f aca="false">H30*C30</f>
-        <v>66643.8042981253</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B31" s="11" t="n">
-        <f aca="false">(1+intr1)^A31</f>
-        <v>1.36048896</v>
-      </c>
-      <c r="C31" s="11" t="n">
-        <f aca="false">1/B31</f>
-        <v>0.735029852796453</v>
-      </c>
-      <c r="D31" s="22" t="n">
-        <v>43000</v>
-      </c>
-      <c r="E31" s="20" t="n">
-        <f aca="false">D31*C31</f>
-        <v>31606.2836702475</v>
-      </c>
-      <c r="F31" s="22" t="n">
-        <v>49152</v>
-      </c>
-      <c r="G31" s="22" t="n">
-        <f aca="false">F31*C31</f>
-        <v>36128.1873246513</v>
-      </c>
-      <c r="H31" s="22" t="n">
-        <v>59952</v>
-      </c>
-      <c r="I31" s="22" t="n">
-        <f aca="false">H31*C31</f>
-        <v>44066.509734853</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B32" s="11" t="n">
-        <f aca="false">(1+intr1)^A32</f>
-        <v>1.4693280768</v>
-      </c>
-      <c r="C32" s="11" t="n">
-        <f aca="false">1/B32</f>
-        <v>0.680583197033753</v>
-      </c>
-      <c r="D32" s="22" t="n">
-        <v>43000</v>
-      </c>
-      <c r="E32" s="20" t="n">
-        <f aca="false">D32*C32</f>
-        <v>29265.0774724514</v>
-      </c>
-      <c r="F32" s="22" t="n">
-        <v>39322</v>
-      </c>
-      <c r="G32" s="22" t="n">
-        <f aca="false">F32*C32</f>
-        <v>26761.8924737612</v>
-      </c>
-      <c r="H32" s="22" t="n">
-        <v>42864</v>
-      </c>
-      <c r="I32" s="22" t="n">
-        <f aca="false">H32*C32</f>
-        <v>29172.5181576548</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="B33" s="11" t="n">
-        <f aca="false">(1+intr1)^A33</f>
-        <v>1.586874322944</v>
-      </c>
-      <c r="C33" s="11" t="n">
-        <f aca="false">1/B33</f>
-        <v>0.630169626883105</v>
-      </c>
-      <c r="D33" s="22" t="n">
-        <v>43000</v>
-      </c>
-      <c r="E33" s="20" t="n">
-        <f aca="false">D33*C33</f>
-        <v>27097.2939559735</v>
-      </c>
-      <c r="F33" s="22" t="n">
-        <v>31457</v>
-      </c>
-      <c r="G33" s="22" t="n">
-        <f aca="false">F33*C33</f>
-        <v>19823.2459528618</v>
-      </c>
-      <c r="H33" s="22" t="n">
-        <v>42816</v>
-      </c>
-      <c r="I33" s="22" t="n">
-        <f aca="false">H33*C33</f>
-        <v>26981.342744627</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="B34" s="11" t="n">
-        <f aca="false">(1+intr1)^A34</f>
-        <v>1.71382426877952</v>
-      </c>
-      <c r="C34" s="11" t="n">
-        <f aca="false">1/B34</f>
-        <v>0.583490395262134</v>
-      </c>
-      <c r="D34" s="22" t="n">
-        <v>43000</v>
-      </c>
-      <c r="E34" s="20" t="n">
-        <f aca="false">D34*C34</f>
-        <v>25090.0869962718</v>
-      </c>
-      <c r="F34" s="22" t="n">
-        <v>25166</v>
-      </c>
-      <c r="G34" s="22" t="n">
-        <f aca="false">F34*C34</f>
-        <v>14684.1192871669</v>
-      </c>
-      <c r="H34" s="22" t="n">
-        <v>42864</v>
-      </c>
-      <c r="I34" s="22" t="n">
-        <f aca="false">H34*C34</f>
-        <v>25010.7323025161</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B35" s="11" t="n">
-        <f aca="false">(1+intr1)^A35</f>
-        <v>1.85093021028188</v>
-      </c>
-      <c r="C35" s="11" t="n">
-        <f aca="false">1/B35</f>
-        <v>0.540268884501976</v>
-      </c>
-      <c r="D35" s="22" t="n">
-        <v>43000</v>
-      </c>
-      <c r="E35" s="20" t="n">
-        <f aca="false">D35*C35</f>
-        <v>23231.562033585</v>
-      </c>
-      <c r="F35" s="22" t="n">
-        <v>20133</v>
-      </c>
-      <c r="G35" s="22" t="n">
-        <f aca="false">F35*C35</f>
-        <v>10877.2334516783</v>
-      </c>
-      <c r="H35" s="22" t="n">
-        <v>21408</v>
-      </c>
-      <c r="I35" s="22" t="n">
-        <f aca="false">H35*C35</f>
-        <v>11566.0762794183</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B36" s="11" t="n">
-        <f aca="false">(1+intr1)^A36</f>
-        <v>1.99900462710443</v>
-      </c>
-      <c r="C36" s="11" t="n">
-        <f aca="false">1/B36</f>
-        <v>0.500248967131459</v>
-      </c>
-      <c r="D36" s="22" t="n">
-        <v>43000</v>
-      </c>
-      <c r="E36" s="20" t="n">
-        <f aca="false">D36*C36</f>
-        <v>21510.7055866527</v>
-      </c>
-      <c r="F36" s="22" t="n">
-        <v>16106</v>
-      </c>
-      <c r="G36" s="22" t="n">
-        <f aca="false">F36*C36</f>
-        <v>8057.00986461928</v>
-      </c>
-      <c r="H36" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="22" t="n">
-        <f aca="false">H36*C36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="B37" s="11" t="n">
-        <f aca="false">(1+intr1)^A37</f>
-        <v>2.15892499727279</v>
-      </c>
-      <c r="C37" s="11" t="n">
-        <f aca="false">1/B37</f>
-        <v>0.463193488084684</v>
-      </c>
-      <c r="D37" s="22" t="n">
-        <v>43000</v>
-      </c>
-      <c r="E37" s="20" t="n">
-        <f aca="false">D37*C37</f>
-        <v>19917.3199876414</v>
-      </c>
-      <c r="F37" s="22" t="n">
-        <v>12885</v>
-      </c>
-      <c r="G37" s="22" t="n">
-        <f aca="false">F37*C37</f>
-        <v>5968.24809397116</v>
-      </c>
-      <c r="H37" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="22" t="n">
-        <f aca="false">H37*C37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22" t="n">
-        <f aca="false">SUM(E28:E37)</f>
-        <v>288533.500154482</v>
-      </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22" t="n">
-        <f aca="false">SUM(G28:G37)</f>
-        <v>325805.499625055</v>
-      </c>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22" t="n">
-        <f aca="false">SUM(I28:I37)</f>
-        <v>367733.987632421</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
       <c r="E39" s="6"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -1575,10 +1552,20 @@
       <c r="I39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="A40" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" s="23" t="n">
+        <f aca="false">B39</f>
+        <v>240000</v>
+      </c>
+      <c r="C40" s="22" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="D40" s="23" t="n">
+        <f aca="false">B40*C40</f>
+        <v>46080</v>
+      </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
@@ -1586,10 +1573,20 @@
       <c r="I40" s="11"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="A41" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" s="23" t="n">
+        <f aca="false">B40</f>
+        <v>240000</v>
+      </c>
+      <c r="C41" s="22" t="n">
+        <v>0.1152</v>
+      </c>
+      <c r="D41" s="23" t="n">
+        <f aca="false">B41*C41</f>
+        <v>27648</v>
+      </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -1597,10 +1594,20 @@
       <c r="I41" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="A42" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" s="23" t="n">
+        <f aca="false">B41</f>
+        <v>240000</v>
+      </c>
+      <c r="C42" s="22" t="n">
+        <v>0.1152</v>
+      </c>
+      <c r="D42" s="23" t="n">
+        <f aca="false">B42*C42</f>
+        <v>27648</v>
+      </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -1608,10 +1615,20 @@
       <c r="I42" s="11"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="A43" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B43" s="23" t="n">
+        <f aca="false">B42</f>
+        <v>240000</v>
+      </c>
+      <c r="C43" s="22" t="n">
+        <v>0.0576</v>
+      </c>
+      <c r="D43" s="23" t="n">
+        <f aca="false">B43*C43</f>
+        <v>13824</v>
+      </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
@@ -1633,111 +1650,387 @@
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
+      <c r="D45" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
+      <c r="A46" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="J46" s="26" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
+      <c r="A47" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="27" t="n">
+        <f aca="false">-B34</f>
+        <v>-240000</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" s="27" t="n">
+        <f aca="false">D47</f>
+        <v>-240000</v>
+      </c>
+      <c r="I47" s="11" t="n">
+        <f aca="false">1/(1+$B$31)^$A47</f>
+        <v>1</v>
+      </c>
+      <c r="J47" s="28" t="n">
+        <f aca="false">I47*H47</f>
+        <v>-240000</v>
+      </c>
+      <c r="K47" s="28"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
+      <c r="A48" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" s="27" t="n">
+        <f aca="false">$B$28*(1+$B$32)^$A48</f>
+        <v>379620</v>
+      </c>
+      <c r="C48" s="27" t="n">
+        <f aca="false">-$B$29*(1+$B$33)^$A48</f>
+        <v>-252384</v>
+      </c>
+      <c r="D48" s="27" t="n">
+        <f aca="false">B48+C48</f>
+        <v>127236</v>
+      </c>
+      <c r="E48" s="27" t="n">
+        <f aca="false">D38</f>
+        <v>48000</v>
+      </c>
+      <c r="F48" s="27" t="n">
+        <f aca="false">D48-E48</f>
+        <v>79236</v>
+      </c>
+      <c r="G48" s="27" t="n">
+        <f aca="false">-F48*$B$35</f>
+        <v>-19809</v>
+      </c>
+      <c r="H48" s="27" t="n">
+        <f aca="false">D48+G48</f>
+        <v>107427</v>
+      </c>
+      <c r="I48" s="11" t="n">
+        <f aca="false">1/(1+$B$31)^$A48</f>
+        <v>0.952380952380952</v>
+      </c>
+      <c r="J48" s="28" t="n">
+        <f aca="false">I48*H48</f>
+        <v>102311.428571429</v>
+      </c>
+      <c r="K48" s="28"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
+      <c r="A49" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" s="27" t="n">
+        <f aca="false">$B$28*(1+$B$32)^$A49</f>
+        <v>389490.12</v>
+      </c>
+      <c r="C49" s="27" t="n">
+        <f aca="false">-$B$29*(1+$B$33)^$A49</f>
+        <v>-266517.504</v>
+      </c>
+      <c r="D49" s="27" t="n">
+        <f aca="false">B49+C49</f>
+        <v>122972.616</v>
+      </c>
+      <c r="E49" s="27" t="n">
+        <f aca="false">D39</f>
+        <v>76800</v>
+      </c>
+      <c r="F49" s="27" t="n">
+        <f aca="false">D49-E49</f>
+        <v>46172.616</v>
+      </c>
+      <c r="G49" s="27" t="n">
+        <f aca="false">-F49*$B$35</f>
+        <v>-11543.154</v>
+      </c>
+      <c r="H49" s="27" t="n">
+        <f aca="false">D49+G49</f>
+        <v>111429.462</v>
+      </c>
+      <c r="I49" s="11" t="n">
+        <f aca="false">1/(1+$B$31)^$A49</f>
+        <v>0.90702947845805</v>
+      </c>
+      <c r="J49" s="28" t="n">
+        <f aca="false">I49*H49</f>
+        <v>101069.806802721</v>
+      </c>
+      <c r="K49" s="28"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
+      <c r="A50" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" s="27" t="n">
+        <f aca="false">$B$28*(1+$B$32)^$A50</f>
+        <v>399616.86312</v>
+      </c>
+      <c r="C50" s="27" t="n">
+        <f aca="false">-$B$29*(1+$B$33)^$A50</f>
+        <v>-281442.484224</v>
+      </c>
+      <c r="D50" s="27" t="n">
+        <f aca="false">B50+C50</f>
+        <v>118174.378896</v>
+      </c>
+      <c r="E50" s="27" t="n">
+        <f aca="false">D40</f>
+        <v>46080</v>
+      </c>
+      <c r="F50" s="27" t="n">
+        <f aca="false">D50-E50</f>
+        <v>72094.378896</v>
+      </c>
+      <c r="G50" s="27" t="n">
+        <f aca="false">-F50*$B$35</f>
+        <v>-18023.594724</v>
+      </c>
+      <c r="H50" s="27" t="n">
+        <f aca="false">D50+G50</f>
+        <v>100150.784172</v>
+      </c>
+      <c r="I50" s="11" t="n">
+        <f aca="false">1/(1+$B$31)^$A50</f>
+        <v>0.863837598531476</v>
+      </c>
+      <c r="J50" s="28" t="n">
+        <f aca="false">I50*H50</f>
+        <v>86514.0128901846</v>
+      </c>
+      <c r="K50" s="28"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
+      <c r="A51" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B51" s="27" t="n">
+        <f aca="false">$B$28*(1+$B$32)^$A51</f>
+        <v>410006.90156112</v>
+      </c>
+      <c r="C51" s="27" t="n">
+        <f aca="false">-$B$29*(1+$B$33)^$A51</f>
+        <v>-297203.263340544</v>
+      </c>
+      <c r="D51" s="27" t="n">
+        <f aca="false">B51+C51</f>
+        <v>112803.638220576</v>
+      </c>
+      <c r="E51" s="27" t="n">
+        <f aca="false">D41</f>
+        <v>27648</v>
+      </c>
+      <c r="F51" s="27" t="n">
+        <f aca="false">D51-E51</f>
+        <v>85155.638220576</v>
+      </c>
+      <c r="G51" s="27" t="n">
+        <f aca="false">-F51*$B$35</f>
+        <v>-21288.909555144</v>
+      </c>
+      <c r="H51" s="27" t="n">
+        <f aca="false">D51+G51</f>
+        <v>91514.728665432</v>
+      </c>
+      <c r="I51" s="11" t="n">
+        <f aca="false">1/(1+$B$31)^$A51</f>
+        <v>0.822702474791882</v>
+      </c>
+      <c r="J51" s="28" t="n">
+        <f aca="false">I51*H51</f>
+        <v>75289.3937529585</v>
+      </c>
+      <c r="K51" s="28"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
+      <c r="A52" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B52" s="27" t="n">
+        <f aca="false">$B$28*(1+$B$32)^$A52</f>
+        <v>420667.081001709</v>
+      </c>
+      <c r="C52" s="27" t="n">
+        <f aca="false">-$B$29*(1+$B$33)^$A52</f>
+        <v>-313846.646087615</v>
+      </c>
+      <c r="D52" s="27" t="n">
+        <f aca="false">B52+C52</f>
+        <v>106820.434914095</v>
+      </c>
+      <c r="E52" s="27" t="n">
+        <f aca="false">D42</f>
+        <v>27648</v>
+      </c>
+      <c r="F52" s="27" t="n">
+        <f aca="false">D52-E52</f>
+        <v>79172.4349140946</v>
+      </c>
+      <c r="G52" s="27" t="n">
+        <f aca="false">-F52*$B$35</f>
+        <v>-19793.1087285237</v>
+      </c>
+      <c r="H52" s="27" t="n">
+        <f aca="false">D52+G52</f>
+        <v>87027.326185571</v>
+      </c>
+      <c r="I52" s="11" t="n">
+        <f aca="false">1/(1+$B$31)^$A52</f>
+        <v>0.783526166468459</v>
+      </c>
+      <c r="J52" s="28" t="n">
+        <f aca="false">I52*H52</f>
+        <v>68188.1872641806</v>
+      </c>
+      <c r="K52" s="28"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
+      <c r="A53" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B53" s="27" t="n">
+        <f aca="false">$B$28*(1+$B$32)^$A53</f>
+        <v>431604.425107754</v>
+      </c>
+      <c r="C53" s="27" t="n">
+        <f aca="false">-$B$29*(1+$B$33)^$A53</f>
+        <v>-331422.058268521</v>
+      </c>
+      <c r="D53" s="27" t="n">
+        <f aca="false">B53+C53</f>
+        <v>100182.366839233</v>
+      </c>
+      <c r="E53" s="27" t="n">
+        <f aca="false">D43</f>
+        <v>13824</v>
+      </c>
+      <c r="F53" s="27" t="n">
+        <f aca="false">D53-E53</f>
+        <v>86358.3668392326</v>
+      </c>
+      <c r="G53" s="27" t="n">
+        <f aca="false">-F53*$B$35</f>
+        <v>-21589.5917098082</v>
+      </c>
+      <c r="H53" s="27" t="n">
+        <f aca="false">D53+G53</f>
+        <v>78592.7751294245</v>
+      </c>
+      <c r="I53" s="11" t="n">
+        <f aca="false">1/(1+$B$31)^$A53</f>
+        <v>0.746215396636627</v>
+      </c>
+      <c r="J53" s="28" t="n">
+        <f aca="false">I53*H53</f>
+        <v>58647.1388659767</v>
+      </c>
+      <c r="K53" s="28"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
+      <c r="A54" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="23" t="n">
+        <f aca="false">B30</f>
+        <v>35000</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" s="23" t="n">
+        <f aca="false">D54</f>
+        <v>35000</v>
+      </c>
+      <c r="G54" s="27" t="n">
+        <f aca="false">-F54*$B$35</f>
+        <v>-8750</v>
+      </c>
+      <c r="H54" s="27" t="n">
+        <f aca="false">D54+G54</f>
+        <v>26250</v>
+      </c>
+      <c r="I54" s="11" t="n">
+        <f aca="false">1/(1+$B$31)^$A54</f>
+        <v>0.746215396636627</v>
+      </c>
+      <c r="J54" s="28" t="n">
+        <f aca="false">I54*H54</f>
+        <v>19588.1541617115</v>
+      </c>
+      <c r="K54" s="28"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="10"/>
@@ -1747,7 +2040,7 @@
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
+      <c r="H55" s="0"/>
       <c r="I55" s="11"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1757,9 +2050,20 @@
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
+      <c r="G56" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H56" s="27" t="n">
+        <f aca="false">NPV(B27,H47:H53)</f>
+        <v>181591.785573423</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J56" s="23" t="n">
+        <f aca="false">NPV(D27,J48:J54)+J47</f>
+        <v>138458.183656791</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="10"/>
@@ -1769,7 +2073,10 @@
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
+      <c r="H57" s="27" t="n">
+        <f aca="false">PV(B27,A54,,H54)</f>
+        <v>-15652.0173305794</v>
+      </c>
       <c r="I57" s="11"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1780,7 +2087,7 @@
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
+      <c r="H58" s="27"/>
       <c r="I58" s="11"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1788,10 +2095,17 @@
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
+      <c r="E59" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
+      <c r="H59" s="23" t="n">
+        <f aca="false">SUM(H56:H58)</f>
+        <v>165939.768242844</v>
+      </c>
       <c r="I59" s="11"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1799,8 +2113,13 @@
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
+      <c r="E60" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="23" t="n">
+        <f aca="false">PV($B$27,E60,,-H47)</f>
+        <v>-240000</v>
+      </c>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
@@ -1810,8 +2129,13 @@
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
+      <c r="E61" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" s="23" t="n">
+        <f aca="false">PV($B$27,E61,,-H48)</f>
+        <v>98556.8807339449</v>
+      </c>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
@@ -1821,8 +2145,13 @@
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
+      <c r="E62" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" s="23" t="n">
+        <f aca="false">PV($B$27,E62,,-H49)</f>
+        <v>93787.9488258564</v>
+      </c>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
@@ -1832,8 +2161,13 @@
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
+      <c r="E63" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" s="23" t="n">
+        <f aca="false">PV($B$27,E63,,-H50)</f>
+        <v>77334.7810527795</v>
+      </c>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
@@ -1843,8 +2177,13 @@
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
+      <c r="E64" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="F64" s="23" t="n">
+        <f aca="false">PV($B$27,E64,,-H51)</f>
+        <v>64831.3409703828</v>
+      </c>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
@@ -1854,8 +2193,13 @@
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
+      <c r="E65" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" s="23" t="n">
+        <f aca="false">PV($B$27,E65,,-H52)</f>
+        <v>56561.7907536264</v>
+      </c>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
@@ -1865,8 +2209,13 @@
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
+      <c r="E66" s="29" t="n">
+        <v>6</v>
+      </c>
+      <c r="F66" s="23" t="n">
+        <f aca="false">PV($B$27,E66,,-H53)</f>
+        <v>46862.3039384412</v>
+      </c>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
@@ -1876,8 +2225,13 @@
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
+      <c r="E67" s="29" t="n">
+        <v>6</v>
+      </c>
+      <c r="F67" s="23" t="n">
+        <f aca="false">PV($B$27,E67,,-H54)</f>
+        <v>15652.0173305794</v>
+      </c>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
@@ -1887,8 +2241,13 @@
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
+      <c r="E68" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" s="23" t="n">
+        <f aca="false">SUM(F60:F67)</f>
+        <v>213587.063605611</v>
+      </c>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
@@ -1898,8 +2257,13 @@
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
+      <c r="E69" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F69" s="23" t="n">
+        <f aca="false">F68+B34</f>
+        <v>453587.063605611</v>
+      </c>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
@@ -5617,7 +5981,7 @@
       <c r="C407" s="11"/>
       <c r="D407" s="11"/>
       <c r="E407" s="11"/>
-      <c r="F407" s="23"/>
+      <c r="F407" s="30"/>
       <c r="G407" s="11"/>
       <c r="H407" s="11"/>
       <c r="I407" s="11"/>
